--- a/biology/Médecine/Hôpital_de_la_Chaux-de-Fonds/Hôpital_de_la_Chaux-de-Fonds.xlsx
+++ b/biology/Médecine/Hôpital_de_la_Chaux-de-Fonds/Hôpital_de_la_Chaux-de-Fonds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Chaux-de-Fonds</t>
+          <t>Hôpital_de_la_Chaux-de-Fonds</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôpital de La Chaux-de-Fonds est un hôpital situé à La Chaux-de-Fonds.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Chaux-de-Fonds</t>
+          <t>Hôpital_de_la_Chaux-de-Fonds</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire de l’hôpital</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital de La Chaux-de-Fonds fait partie du réseau hospitalier neuchâtelois[1],[2].
-En 2017, la vétusté du site hospitalier est mise en lumière et bénéficie d'une rénovation en 2021, notamment le service des urgences[3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital de La Chaux-de-Fonds fait partie du réseau hospitalier neuchâtelois,.
+En 2017, la vétusté du site hospitalier est mise en lumière et bénéficie d'une rénovation en 2021, notamment le service des urgences.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Chaux-de-Fonds</t>
+          <t>Hôpital_de_la_Chaux-de-Fonds</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Services de l'hôpital</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le département de l'imagerie médicale est modernisé en 2021[6].
-Le Centre d'urgences psychiatriques (CUP), est un service du CNP situé sur les sites de RHNe de Neuchâtel et de La Chaux-de-Fonds[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le département de l'imagerie médicale est modernisé en 2021.
+Le Centre d'urgences psychiatriques (CUP), est un service du CNP situé sur les sites de RHNe de Neuchâtel et de La Chaux-de-Fonds.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Chaux-de-Fonds</t>
+          <t>Hôpital_de_la_Chaux-de-Fonds</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Risques sanitaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès le début de la crise sanitaire, l'hôpital de La Chaux-de-Fonds,  fait partie des sept unités sur 26 du RHNE qui sont restructurées pour prendre en charge les patients positifs à la Covid[8].[pertinence contestée] 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès le début de la crise sanitaire, l'hôpital de La Chaux-de-Fonds,  fait partie des sept unités sur 26 du RHNE qui sont restructurées pour prendre en charge les patients positifs à la Covid.[pertinence contestée] 
 </t>
         </is>
       </c>
